--- a/data/omsidata.xlsx
+++ b/data/omsidata.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="10" documentId="8_{3B293BA1-309E-41D8-8DB0-DEB93894AA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F89B72B-B913-429D-AB2F-45AD382932F2}"/>
   <bookViews>
-    <workbookView xWindow="2196" yWindow="0" windowWidth="17304" windowHeight="8892" xr2:uid="{21CAE6DA-13CA-4481-9B17-3BED2815AA77}"/>
+    <workbookView xWindow="10572" yWindow="0" windowWidth="12468" windowHeight="12336" xr2:uid="{21CAE6DA-13CA-4481-9B17-3BED2815AA77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -972,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B095548C-45DD-4278-A7EB-C2297303D511}">
   <dimension ref="A1:O152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
